--- a/DUOL.xlsx
+++ b/DUOL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1A96645-511C-46B4-AF0B-F1A4EDBCF163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A71726-7014-4765-AD7C-34D3C3263ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{3315A4CF-E10B-4E25-9E09-62502A0E79F0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{3315A4CF-E10B-4E25-9E09-62502A0E79F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t xml:space="preserve">Duolingo </t>
   </si>
@@ -194,6 +194,21 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +273,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -270,6 +285,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -608,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3DFAF6-3078-42A2-B096-3BBF3265F693}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>295</v>
+        <v>371.65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -638,11 +654,11 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f>37.897481+6.087077</f>
-        <v>43.984558</v>
+        <f>39.694545+6.127362</f>
+        <v>45.821906999999996</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -654,7 +670,7 @@
       </c>
       <c r="I4" s="2">
         <f>+I2*I3</f>
-        <v>12975.44461</v>
+        <v>17029.711736549998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -665,11 +681,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="2">
-        <f>854.409+26.354</f>
-        <v>880.76300000000003</v>
+        <f>976.231+121.652</f>
+        <v>1097.883</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -680,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -689,7 +705,7 @@
       </c>
       <c r="I7" s="2">
         <f>+I4-I5+I6</f>
-        <v>12094.68161</v>
+        <v>15931.828736549998</v>
       </c>
     </row>
   </sheetData>
@@ -701,11 +717,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E1F405-6D19-439B-8E26-C59FBC7B36BD}">
   <dimension ref="A1:AX323"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J38" sqref="J38:J40"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +760,18 @@
       <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -756,13 +784,17 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5">
+        <v>103.6</v>
+      </c>
       <c r="I3" s="5">
         <v>113.1</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="5">
+        <v>128.30000000000001</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -807,13 +839,17 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5">
+        <v>34.1</v>
+      </c>
       <c r="I4" s="5">
         <v>37.200000000000003</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="5">
+        <v>47.7</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -858,13 +894,17 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5">
+        <v>8</v>
+      </c>
       <c r="I5" s="5">
         <v>8.6</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="L5" s="5">
+        <v>10.9</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -908,16 +948,34 @@
         <f>+E10/E5/3</f>
         <v>6.0854597701149435</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="5" t="e">
+        <f t="shared" ref="F6:H6" si="0">+F10/F5/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.9962083333333327</v>
+      </c>
       <c r="I6" s="5">
         <f>+I10/I5/3</f>
         <v>6.1091860465116277</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="J6" s="5" t="e">
+        <f t="shared" ref="J6:L6" si="1">+J10/J5/3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>6.4427522935779811</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -962,13 +1020,17 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5">
+        <v>156.48400000000001</v>
+      </c>
       <c r="I7" s="5">
         <v>176.309</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>227.25899999999999</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1013,13 +1075,17 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5">
+        <v>190.09200000000001</v>
+      </c>
       <c r="I8" s="5">
         <v>211.45599999999999</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>268.02</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1108,13 +1174,17 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5">
+        <v>143.90899999999999</v>
+      </c>
       <c r="I10" s="5">
         <v>157.61699999999999</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>210.678</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1165,13 +1235,17 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5">
+        <v>34.417999999999999</v>
+      </c>
       <c r="I11" s="5">
         <v>34.976999999999997</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>41.587000000000003</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1222,13 +1296,17 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>13.257999999999999</v>
+      </c>
       <c r="I12" s="5">
         <v>14.404999999999999</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>20.603000000000002</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1279,13 +1357,17 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5">
+        <v>10.698</v>
+      </c>
       <c r="I13" s="5">
         <v>10.772</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5">
+        <v>10.087999999999999</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1336,13 +1418,17 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5">
+        <v>10.176</v>
+      </c>
       <c r="I14" s="5">
         <v>9.4109999999999996</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>10.39</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1393,13 +1479,17 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5">
+        <v>0.28599999999999998</v>
+      </c>
       <c r="I15" s="5">
         <v>0.38900000000000001</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>0.50600000000000001</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -1450,13 +1540,17 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>178.327</v>
+      </c>
       <c r="I16" s="6">
         <v>192.59399999999999</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="6">
+        <v>252.26499999999999</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
@@ -1507,13 +1601,17 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="H17" s="5">
+        <v>47.348999999999997</v>
+      </c>
       <c r="I17" s="5">
         <v>52.18</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5">
+        <v>69.683999999999997</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
@@ -1558,41 +1656,53 @@
         <v>21</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:H18" si="0">+C16-C17</f>
+        <f t="shared" ref="C18:H18" si="2">+C16-C17</f>
         <v>0</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>101.37</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>130.97800000000001</v>
       </c>
       <c r="I18" s="5">
         <f>+I16-I17</f>
         <v>140.41399999999999</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ref="J18" si="1">+J16-J17</f>
+        <f t="shared" ref="J18:N18" si="3">+J16-J17</f>
         <v>0</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" si="3"/>
+        <v>182.58099999999999</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -1641,13 +1751,17 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5">
+        <v>55.146999999999998</v>
+      </c>
       <c r="I19" s="5">
         <v>62.878</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5">
+        <v>73.67</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
@@ -1698,13 +1812,17 @@
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5">
+        <v>20.173999999999999</v>
+      </c>
       <c r="I20" s="5">
         <v>25.574000000000002</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>29.562999999999999</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1755,13 +1873,17 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5">
+        <v>36.957000000000001</v>
+      </c>
       <c r="I21" s="5">
         <v>38.387999999999998</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="5">
+        <v>45.984999999999999</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -1806,28 +1928,28 @@
         <v>25</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" ref="C22:H22" si="2">+C18-SUM(C19:C21)</f>
+        <f t="shared" ref="C22:H22" si="4">+C18-SUM(C19:C21)</f>
         <v>0</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.6699999999999875</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>18.700000000000017</v>
       </c>
       <c r="I22" s="5">
         <f>+I18-SUM(I19:I21)</f>
@@ -1837,10 +1959,22 @@
         <f>+J18-SUM(J19:J21)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="K22" s="5">
+        <f t="shared" ref="K22:N22" si="5">+K18-SUM(K19:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="5"/>
+        <v>33.362999999999971</v>
+      </c>
+      <c r="M22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -1889,13 +2023,17 @@
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5">
+        <v>-0.70699999999999996</v>
+      </c>
       <c r="I23" s="5">
         <v>0.56899999999999995</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="L23" s="5">
+        <v>1.66</v>
+      </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -1946,13 +2084,17 @@
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5">
+        <v>10.721</v>
+      </c>
       <c r="I24" s="5">
         <v>11.246</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="L24" s="5">
+        <v>11.427</v>
+      </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -1997,41 +2139,53 @@
         <v>28</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" ref="C25:H25" si="3">+C22+C23+C24</f>
+        <f t="shared" ref="C25:H25" si="6">+C22+C23+C24</f>
         <v>0</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2.9320000000000128</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>28.714000000000016</v>
       </c>
       <c r="I25" s="5">
         <f>+I22+I23+I24</f>
         <v>25.388999999999982</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" ref="J25" si="4">+J22+J23+J24</f>
+        <f t="shared" ref="J25:N25" si="7">+J22+J23+J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="K25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <f t="shared" si="7"/>
+        <v>46.449999999999967</v>
+      </c>
+      <c r="M25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
@@ -2080,13 +2234,17 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5">
+        <v>4.3630000000000004</v>
+      </c>
       <c r="I26" s="5">
         <v>2.0289999999999999</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
+      <c r="L26" s="5">
+        <v>1.669</v>
+      </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -2131,41 +2289,53 @@
         <v>30</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" ref="C27:H27" si="5">+C25-C26</f>
+        <f t="shared" ref="C27:H27" si="8">+C25-C26</f>
         <v>0</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8070000000000128</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>24.351000000000017</v>
       </c>
       <c r="I27" s="5">
         <f>+I25-I26</f>
         <v>23.359999999999982</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" ref="J27" si="6">+J25-J26</f>
+        <f t="shared" ref="J27:N27" si="9">+J25-J26</f>
         <v>0</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="K27" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" si="9"/>
+        <v>44.78099999999997</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -2258,41 +2428,53 @@
         <v>31</v>
       </c>
       <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:H29" si="7">+C27/C30</f>
+        <f t="shared" ref="C29:H29" si="10">+C27/C30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6.6877918612408577E-2</v>
       </c>
       <c r="F29" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="H29" s="7">
+        <f t="shared" si="10"/>
+        <v>0.56289875173370363</v>
       </c>
       <c r="I29" s="7">
         <f>+I27/I30</f>
         <v>0.53158565446932415</v>
       </c>
       <c r="J29" s="7" t="e">
-        <f t="shared" ref="J29" si="8">+J27/J30</f>
+        <f t="shared" ref="J29:N29" si="11">+J27/J30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="K29" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="11"/>
+        <v>0.98182416136812034</v>
+      </c>
+      <c r="M29" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
@@ -2341,13 +2523,17 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="5">
+        <v>43.26</v>
+      </c>
       <c r="I30" s="5">
         <v>43.944000000000003</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
+      <c r="L30" s="5">
+        <v>45.61</v>
+      </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
@@ -2446,11 +2632,11 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="8" t="e">
-        <f t="shared" ref="G32:H34" si="9">+G3/C3-1</f>
+        <f t="shared" ref="G32:H34" si="12">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="8">
@@ -2458,13 +2644,25 @@
         <v>0.36101083032490977</v>
       </c>
       <c r="J32" s="8" t="e">
-        <f t="shared" ref="J32:J34" si="10">+J3/F3-1</f>
+        <f t="shared" ref="J32:J34" si="13">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="K32" s="8" t="e">
+        <f t="shared" ref="K32:K34" si="14">+K3/G3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" ref="L32:L34" si="15">+L3/H3-1</f>
+        <v>0.23841698841698866</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" ref="M32:M34" si="16">+M3/I3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="8" t="e">
+        <f t="shared" ref="N32:N34" si="17">+N3/J3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -2511,25 +2709,37 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" ref="I33:I34" si="11">+I4/E4-1</f>
+        <f t="shared" ref="I33:I34" si="18">+I4/E4-1</f>
         <v>0.53719008264462831</v>
       </c>
       <c r="J33" s="8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="K33" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="15"/>
+        <v>0.39882697947214085</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N33" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -2576,25 +2786,37 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="8" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>0.48275862068965525</v>
       </c>
       <c r="J34" s="8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="K34" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="15"/>
+        <v>0.36250000000000004</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N34" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -2641,11 +2863,11 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8" t="e">
-        <f t="shared" ref="G35:H35" si="12">+G10/C10-1</f>
+        <f t="shared" ref="G35:H35" si="19">+G10/C10-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="8" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="8">
@@ -2656,10 +2878,22 @@
         <f>+J10/F10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="K35" s="8" t="e">
+        <f t="shared" ref="K35:N35" si="20">+K10/G10-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="20"/>
+        <v>0.46396681236058912</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="N35" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -2721,10 +2955,22 @@
         <f>+J11/F11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="K36" s="8" t="e">
+        <f t="shared" ref="K36:N36" si="21">+K11/G11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="21"/>
+        <v>0.20829217270033129</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="N36" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -2763,33 +3009,45 @@
       <c r="AX36" s="5"/>
     </row>
     <row r="37" spans="2:50" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8" t="e">
-        <f t="shared" ref="G37:H37" si="13">+G16/C16-1</f>
+      <c r="B37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="9" t="e">
+        <f t="shared" ref="G37:H37" si="22">+G16/C16-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="H37" s="9" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="9">
         <f>+I16/E16-1</f>
         <v>0.39942161250944608</v>
       </c>
-      <c r="J37" s="8" t="e">
-        <f t="shared" ref="J37" si="14">+J16/F16-1</f>
+      <c r="J37" s="9" t="e">
+        <f t="shared" ref="J37" si="23">+J16/F16-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
+      <c r="K37" s="9" t="e">
+        <f t="shared" ref="K37" si="24">+K16/G16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" ref="L37" si="25">+L16/H16-1</f>
+        <v>0.41462033231086703</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" ref="M37" si="26">+M16/I16-1</f>
+        <v>-1</v>
+      </c>
+      <c r="N37" s="9" t="e">
+        <f t="shared" ref="N37" si="27">+N16/J16-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
@@ -2829,31 +3087,31 @@
     </row>
     <row r="38" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="8" t="e">
-        <f t="shared" ref="C38:I38" si="15">+C18/C16</f>
+        <f t="shared" ref="C38:H38" si="28">+C18/C16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D38" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.73657210951578223</v>
       </c>
       <c r="F38" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="H38" s="8">
+        <f t="shared" si="28"/>
+        <v>0.73448215917948489</v>
       </c>
       <c r="I38" s="8">
         <f>+I18/I16</f>
@@ -2863,10 +3121,22 @@
         <f>+J18/J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
+      <c r="K38" s="8" t="e">
+        <f t="shared" ref="K38:N38" si="29">+K18/K16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="29"/>
+        <v>0.7237666739341565</v>
+      </c>
+      <c r="M38" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="8" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
@@ -2906,31 +3176,31 @@
     </row>
     <row r="39" spans="2:50" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="8" t="e">
-        <f t="shared" ref="C39:I39" si="16">+C22/C18</f>
+        <f t="shared" ref="C39:H39" si="30">+C22/C18</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D39" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>-4.6068856663707088E-2</v>
       </c>
       <c r="F39" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="H39" s="8">
+        <f t="shared" si="30"/>
+        <v>0.14277206859167199</v>
       </c>
       <c r="I39" s="8">
         <f>+I22/I18</f>
@@ -2940,10 +3210,22 @@
         <f>+J22/J18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="K39" s="8" t="e">
+        <f t="shared" ref="K39:N39" si="31">+K22/K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="31"/>
+        <v>0.182729856885437</v>
+      </c>
+      <c r="M39" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="8" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
@@ -2982,29 +3264,32 @@
       <c r="AX39" s="5"/>
     </row>
     <row r="40" spans="2:50" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
       <c r="C40" s="8" t="e">
-        <f t="shared" ref="C40:I40" si="17">+C26/C25</f>
+        <f t="shared" ref="C40:H40" si="32">+C26/C25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D40" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>4.2633015006821096E-2</v>
       </c>
       <c r="F40" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="H40" s="8">
+        <f t="shared" si="32"/>
+        <v>0.15194678554015456</v>
       </c>
       <c r="I40" s="8">
         <f>+I26/I25</f>
@@ -3014,10 +3299,22 @@
         <f>+J26/J25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="K40" s="8" t="e">
+        <f t="shared" ref="K40:N40" si="33">+K26/K25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="33"/>
+        <v>3.5931108719052772E-2</v>
+      </c>
+      <c r="M40" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="8" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
